--- a/Manufacturing/Armboard BOM.xlsx
+++ b/Manufacturing/Armboard BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\Documents\GitHub\ArmBoard_Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35A51B1-8D3D-41FB-A488-E765EF8F9958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EBBAD-B91A-4B8A-B993-6CF439DF8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -532,6 +530,8 @@
     <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -864,744 +864,744 @@
         <v>9</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>9</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <v>0.48</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-    </row>
-    <row r="3" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="3" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>7</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>0.1</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+    </row>
+    <row r="4" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>8</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>0.39</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-    </row>
-    <row r="5" spans="1:27" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>1327</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>8</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>0.39</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-    </row>
-    <row r="6" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>0.39</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+    </row>
+    <row r="7" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>705530001</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>8</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>0.82</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:27" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>705530002</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>6</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>1.18</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-    </row>
-    <row r="9" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+    </row>
+    <row r="9" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>16</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>0.33</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>11</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <v>0.26</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-    </row>
-    <row r="11" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>2</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <v>0.31</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="20"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-    </row>
-    <row r="12" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="L11" s="26"/>
+      <c r="M11" s="18"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>330</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <v>0.1</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-    </row>
-    <row r="13" spans="1:27" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>13</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>42</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="15">
         <v>0.1</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>14</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>7</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <v>0.1</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-    </row>
-    <row r="15" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>15</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>14</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>0.1</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-    </row>
-    <row r="16" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>16</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>120</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <v>9</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>0.1</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-    </row>
-    <row r="17" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>17</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>7</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>0.13</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-    </row>
-    <row r="18" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+    </row>
+    <row r="18" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>18</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>17</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-    </row>
-    <row r="19" spans="1:27" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="K18" s="14"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:27" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="14">
         <v>1</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>4.3</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-    </row>
-    <row r="20" spans="1:27" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>20</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="14">
         <v>7</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
     </row>
     <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -1685,7 +1685,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1702,7 +1702,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -1727,7 +1727,7 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1744,7 +1744,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -1769,7 +1769,7 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1790,7 +1790,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="13"/>
@@ -1819,7 +1819,7 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1840,7 +1840,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="13"/>
@@ -1869,7 +1869,7 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1890,7 +1890,7 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="13"/>
@@ -1919,7 +1919,7 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1940,7 +1940,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="13"/>

--- a/Manufacturing/Armboard BOM.xlsx
+++ b/Manufacturing/Armboard BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\Documents\GitHub\ArmBoard_Hardware\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69EBBAD-B91A-4B8A-B993-6CF439DF8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9331787-C8F8-4874-B2DB-9AC9BCAB8F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -170,15 +170,6 @@
   </si>
   <si>
     <t>Q1 Q2</t>
-  </si>
-  <si>
-    <t>BSS138</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 50V 220MA SOT23-3</t>
   </si>
   <si>
     <t>RES SMD 330 OHM 5% 1/4W 0603</t>
@@ -320,9 +311,6 @@
     <t>D17, D18, D19, D32, D33</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Vishay-Siliconix/SI2304BDS-T1-BE3?qs=CiayqK2gdcLHemfkVVH4ew%3D%3D</t>
-  </si>
-  <si>
     <t>R18, R19</t>
   </si>
   <si>
@@ -338,7 +326,22 @@
     <t>https://www.digikey.com/en/products/detail/stmicroelectronics/VNH5019A-E/3087979</t>
   </si>
   <si>
-    <t>priceless</t>
+    <t>SMD:SOT-23-3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Micro-Commercial-Components-MCC/SI3420A-TP?qs=W0yvOO0ixfH6dWXB%252BM3Rlg%3D%3D</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>SI3420A-TP</t>
+  </si>
+  <si>
+    <t>833-SI3420A-TP</t>
+  </si>
+  <si>
+    <t>MOSFET NpN 6Amps</t>
   </si>
 </sst>
 </file>
@@ -393,12 +396,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -410,6 +407,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -466,8 +469,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -494,7 +498,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -508,10 +512,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -524,16 +528,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -817,7 +822,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -874,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
@@ -920,14 +925,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -941,7 +946,7 @@
         <v>0.1</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
@@ -1066,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>29</v>
@@ -1101,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>33</v>
@@ -1144,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>37</v>
@@ -1179,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>41</v>
@@ -1224,32 +1229,32 @@
       <c r="B11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>46</v>
+      <c r="C11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I11" s="14">
         <v>2</v>
       </c>
       <c r="J11" s="15">
-        <v>0.31</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="26"/>
+        <v>0.37</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="18"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
@@ -1259,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="14">
         <v>330</v>
@@ -1268,10 +1273,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
@@ -1284,7 +1289,7 @@
         <v>0.1</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
@@ -1302,19 +1307,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
@@ -1327,7 +1332,7 @@
         <v>0.1</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
@@ -1337,19 +1342,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
@@ -1362,7 +1367,7 @@
         <v>0.1</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
@@ -1380,19 +1385,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
@@ -1405,7 +1410,7 @@
         <v>0.1</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
@@ -1415,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14">
         <v>120</v>
@@ -1424,10 +1429,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
@@ -1440,7 +1445,7 @@
         <v>0.1</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
@@ -1458,19 +1463,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
@@ -1483,7 +1488,7 @@
         <v>0.13</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
@@ -1493,16 +1498,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1530,19 +1535,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
@@ -1555,7 +1560,7 @@
         <v>4.3</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -1565,16 +1570,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1584,11 +1589,11 @@
       <c r="I20" s="14">
         <v>7</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>100</v>
+      <c r="J20" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -5481,11 +5486,12 @@
     <hyperlink ref="K15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="K17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="K19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K20" r:id="rId16" xr:uid="{3521E8F8-A0CC-40AF-BFDB-6E304F5334D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>